--- a/trade_stat/trade_stat.xlsx
+++ b/trade_stat/trade_stat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\quantFreedom\trade_stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\qf\trade_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AE29C-8C56-4B27-9821-0AFFBE625A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A728E6F8-A365-42E1-AB73-E4C212F120D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A13558A5-315E-475B-AC2D-31EC7D915205}"/>
   </bookViews>
@@ -349,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3C1CAE9-D569-44BD-963C-9D4FDADA81CC}" name="Table1" displayName="Table1" ref="A2:G12" totalsRowShown="0">
-  <autoFilter ref="A2:G12" xr:uid="{D3C1CAE9-D569-44BD-963C-9D4FDADA81CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3C1CAE9-D569-44BD-963C-9D4FDADA81CC}" name="Table1" displayName="Table1" ref="A2:G19" totalsRowShown="0">
+  <autoFilter ref="A2:G19" xr:uid="{D3C1CAE9-D569-44BD-963C-9D4FDADA81CC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{42418B3A-DB72-4F0F-8CEC-E0C2F424D610}" name="date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{AC1D84C1-AEA7-4A6F-9799-483FA96AF9A8}" name="deposite" dataDxfId="6" totalsRowDxfId="7"/>
@@ -689,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC541F58-4F50-4801-ADF9-E0C9E73929C2}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,14 +826,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D6" s="2">
-        <f>B6+E5</f>
+        <f t="shared" ref="D6:D12" si="2">B6+E5</f>
         <v>588.63879999999995</v>
       </c>
       <c r="E6">
         <v>525.92719999999997</v>
       </c>
       <c r="F6" s="12">
-        <f>E6-D6</f>
+        <f t="shared" ref="F6:F12" si="3">E6-D6</f>
         <v>-62.711599999999976</v>
       </c>
       <c r="G6" s="13">
@@ -853,14 +853,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D7" s="2">
-        <f>B7+E6</f>
+        <f t="shared" si="2"/>
         <v>525.92719999999997</v>
       </c>
       <c r="E7">
         <v>601.28020000000004</v>
       </c>
       <c r="F7">
-        <f>E7-D7</f>
+        <f t="shared" si="3"/>
         <v>75.353000000000065</v>
       </c>
       <c r="G7" s="2">
@@ -880,14 +880,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D8" s="2">
-        <f>B8+E7</f>
+        <f t="shared" si="2"/>
         <v>601.28020000000004</v>
       </c>
       <c r="E8" s="2">
         <v>623</v>
       </c>
       <c r="F8">
-        <f>E8-D8</f>
+        <f t="shared" si="3"/>
         <v>21.719799999999964</v>
       </c>
       <c r="G8" s="2">
@@ -907,14 +907,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D9" s="2">
-        <f>B9+E8</f>
+        <f t="shared" si="2"/>
         <v>623</v>
       </c>
       <c r="E9">
         <v>762.43169999999998</v>
       </c>
       <c r="F9">
-        <f>E9-D9</f>
+        <f t="shared" si="3"/>
         <v>139.43169999999998</v>
       </c>
       <c r="G9" s="2">
@@ -934,14 +934,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D10" s="2">
-        <f>B10+E9</f>
+        <f t="shared" si="2"/>
         <v>762.43169999999998</v>
       </c>
       <c r="E10">
         <v>835.44640000000004</v>
       </c>
       <c r="F10">
-        <f>E10-D10</f>
+        <f t="shared" si="3"/>
         <v>73.014700000000062</v>
       </c>
       <c r="G10" s="2">
@@ -961,14 +961,14 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D11" s="2">
-        <f>B11+E10</f>
+        <f t="shared" si="2"/>
         <v>835.44640000000004</v>
       </c>
       <c r="E11" s="2">
         <v>563.85</v>
       </c>
       <c r="F11">
-        <f>E11-D11</f>
+        <f t="shared" si="3"/>
         <v>-271.59640000000002</v>
       </c>
       <c r="G11" s="2">
@@ -988,20 +988,210 @@
         <v>557.80880520000005</v>
       </c>
       <c r="D12" s="2">
-        <f>B12+E11</f>
+        <f t="shared" si="2"/>
         <v>563.85</v>
       </c>
       <c r="E12">
         <v>630.31809999999996</v>
       </c>
       <c r="F12">
-        <f>E12-D12</f>
+        <f t="shared" si="3"/>
         <v>66.468099999999936</v>
       </c>
       <c r="G12" s="2">
         <f>G11+F12</f>
         <v>72.509299999999996</v>
       </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C16" si="4">B13+C12</f>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D16" si="5">B13+E12</f>
+        <v>630.31809999999996</v>
+      </c>
+      <c r="E13">
+        <v>600.96999999999991</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="6">E13-D13</f>
+        <v>-29.348100000000045</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G16" si="7">G12+F13</f>
+        <v>43.161199999999951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="4"/>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="5"/>
+        <v>600.96999999999991</v>
+      </c>
+      <c r="E14">
+        <v>571.62189999999987</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>-29.348100000000045</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="7"/>
+        <v>13.813099999999906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="4"/>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>571.62189999999987</v>
+      </c>
+      <c r="E15">
+        <v>542.27379999999982</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>-29.348100000000045</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="7"/>
+        <v>-15.535000000000139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="4"/>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="5"/>
+        <v>542.27379999999982</v>
+      </c>
+      <c r="E16">
+        <v>512.92569999999978</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>-29.348100000000045</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="7"/>
+        <v>-44.883100000000184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:C18" si="8">B17+C16</f>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="9">B17+E16</f>
+        <v>512.92569999999978</v>
+      </c>
+      <c r="E17">
+        <v>483.57759999999979</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="10">E17-D17</f>
+        <v>-29.348099999999988</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G18" si="11">G16+F17</f>
+        <v>-74.231200000000172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="8"/>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="9"/>
+        <v>483.57759999999979</v>
+      </c>
+      <c r="E18">
+        <v>454.2294999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>-29.348099999999988</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="11"/>
+        <v>-103.57930000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B19+C18</f>
+        <v>557.80880520000005</v>
+      </c>
+      <c r="D19" s="2">
+        <f>B19+E18</f>
+        <v>454.2294999999998</v>
+      </c>
+      <c r="E19">
+        <v>454.2294999999998</v>
+      </c>
+      <c r="F19">
+        <f>E19-D19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f>G18+F19</f>
+        <v>-103.57930000000016</v>
+      </c>
+      <c r="L19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
